--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H2">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N2">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q2">
-        <v>0.5844865323412871</v>
+        <v>8.797411515460666</v>
       </c>
       <c r="R2">
-        <v>0.5844865323412871</v>
+        <v>79.176703639146</v>
       </c>
       <c r="S2">
-        <v>0.0003968110638205578</v>
+        <v>0.002795624859045468</v>
       </c>
       <c r="T2">
-        <v>0.0003968110638205578</v>
+        <v>0.002795624859045468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H3">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q3">
-        <v>16.84367685854287</v>
+        <v>178.5031084898447</v>
       </c>
       <c r="R3">
-        <v>16.84367685854287</v>
+        <v>1606.527976408602</v>
       </c>
       <c r="S3">
-        <v>0.01143526319779324</v>
+        <v>0.05672438155633656</v>
       </c>
       <c r="T3">
-        <v>0.01143526319779324</v>
+        <v>0.05672438155633656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H4">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N4">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q4">
-        <v>2.210310536161662</v>
+        <v>41.37519214609822</v>
       </c>
       <c r="R4">
-        <v>2.210310536161662</v>
+        <v>372.376729314884</v>
       </c>
       <c r="S4">
-        <v>0.001500591761652369</v>
+        <v>0.01314813061866393</v>
       </c>
       <c r="T4">
-        <v>0.001500591761652369</v>
+        <v>0.01314813061866393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H5">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N5">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q5">
-        <v>2.127694429784763</v>
+        <v>24.12154873349144</v>
       </c>
       <c r="R5">
-        <v>2.127694429784763</v>
+        <v>217.093938601423</v>
       </c>
       <c r="S5">
-        <v>0.001444503240794908</v>
+        <v>0.007665300316975597</v>
       </c>
       <c r="T5">
-        <v>0.001444503240794908</v>
+        <v>0.007665300316975597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H6">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N6">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q6">
-        <v>6.193688026988013</v>
+        <v>66.32220854883944</v>
       </c>
       <c r="R6">
-        <v>6.193688026988013</v>
+        <v>596.899876939555</v>
       </c>
       <c r="S6">
-        <v>0.004204928255774895</v>
+        <v>0.02107574649657895</v>
       </c>
       <c r="T6">
-        <v>0.004204928255774895</v>
+        <v>0.02107574649657894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H7">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N7">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q7">
-        <v>90.61755367332587</v>
+        <v>1108.847987502414</v>
       </c>
       <c r="R7">
-        <v>90.61755367332587</v>
+        <v>9979.631887521728</v>
       </c>
       <c r="S7">
-        <v>0.061520746645592</v>
+        <v>0.3523676246491879</v>
       </c>
       <c r="T7">
-        <v>0.061520746645592</v>
+        <v>0.3523676246491879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H8">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J8">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N8">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q8">
-        <v>1.683439283177787</v>
+        <v>2.512725628743333</v>
       </c>
       <c r="R8">
-        <v>1.683439283177787</v>
+        <v>22.61453065869</v>
       </c>
       <c r="S8">
-        <v>0.001142896022187623</v>
+        <v>0.0007984892168941217</v>
       </c>
       <c r="T8">
-        <v>0.001142896022187623</v>
+        <v>0.0007984892168941215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H9">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J9">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q9">
-        <v>48.51319188355014</v>
+        <v>50.98423948050333</v>
       </c>
       <c r="R9">
-        <v>48.51319188355014</v>
+        <v>458.8581553245299</v>
       </c>
       <c r="S9">
-        <v>0.03293586800628247</v>
+        <v>0.01620167557931487</v>
       </c>
       <c r="T9">
-        <v>0.03293586800628247</v>
+        <v>0.01620167557931487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H10">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J10">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N10">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q10">
-        <v>6.366140841075214</v>
+        <v>11.81762448158444</v>
       </c>
       <c r="R10">
-        <v>6.366140841075214</v>
+        <v>106.35862033426</v>
       </c>
       <c r="S10">
-        <v>0.004322007402736033</v>
+        <v>0.00375538244602075</v>
       </c>
       <c r="T10">
-        <v>0.004322007402736033</v>
+        <v>0.003755382446020748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H11">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J11">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N11">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q11">
-        <v>6.128189765725447</v>
+        <v>6.889621293843888</v>
       </c>
       <c r="R11">
-        <v>6.128189765725447</v>
+        <v>62.00659164459499</v>
       </c>
       <c r="S11">
-        <v>0.004160461132424961</v>
+        <v>0.002189370876266257</v>
       </c>
       <c r="T11">
-        <v>0.004160461132424961</v>
+        <v>0.002189370876266256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H12">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J12">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N12">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q12">
-        <v>17.8390726825016</v>
+        <v>18.94301669106389</v>
       </c>
       <c r="R12">
-        <v>17.8390726825016</v>
+        <v>170.487150219575</v>
       </c>
       <c r="S12">
-        <v>0.01211104279915618</v>
+        <v>0.006019676159718484</v>
       </c>
       <c r="T12">
-        <v>0.01211104279915618</v>
+        <v>0.006019676159718482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H13">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J13">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N13">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q13">
-        <v>260.9968599072416</v>
+        <v>316.7102904850172</v>
       </c>
       <c r="R13">
-        <v>260.9968599072416</v>
+        <v>2850.392614365155</v>
       </c>
       <c r="S13">
-        <v>0.1771921779254004</v>
+        <v>0.1006435994996265</v>
       </c>
       <c r="T13">
-        <v>0.1771921779254004</v>
+        <v>0.1006435994996265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H14">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N14">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q14">
-        <v>0.01334009635118176</v>
+        <v>0.02002759844266666</v>
       </c>
       <c r="R14">
-        <v>0.01334009635118176</v>
+        <v>0.180248385984</v>
       </c>
       <c r="S14">
-        <v>9.056663467294838E-06</v>
+        <v>6.364332505635596E-06</v>
       </c>
       <c r="T14">
-        <v>9.056663467294838E-06</v>
+        <v>6.364332505635595E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H15">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q15">
-        <v>0.3844336178304452</v>
+        <v>0.4063682335786666</v>
       </c>
       <c r="R15">
-        <v>0.3844336178304452</v>
+        <v>3.657314102208</v>
       </c>
       <c r="S15">
-        <v>0.0002609940596041156</v>
+        <v>0.0001291349317605984</v>
       </c>
       <c r="T15">
-        <v>0.0002609940596041156</v>
+        <v>0.0001291349317605984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H16">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N16">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q16">
-        <v>0.05044727959824365</v>
+        <v>0.09419199412622221</v>
       </c>
       <c r="R16">
-        <v>0.05044727959824365</v>
+        <v>0.847727947136</v>
       </c>
       <c r="S16">
-        <v>3.424893060246504E-05</v>
+        <v>2.993215445697413E-05</v>
       </c>
       <c r="T16">
-        <v>3.424893060246504E-05</v>
+        <v>2.993215445697413E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H17">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N17">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q17">
-        <v>0.04856168128546032</v>
+        <v>0.05491350393244444</v>
       </c>
       <c r="R17">
-        <v>0.04856168128546032</v>
+        <v>0.4942215353919999</v>
       </c>
       <c r="S17">
-        <v>3.296878772314734E-05</v>
+        <v>1.745030983500537E-05</v>
       </c>
       <c r="T17">
-        <v>3.296878772314734E-05</v>
+        <v>1.745030983500537E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H18">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N18">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q18">
-        <v>0.1413623590576349</v>
+        <v>0.1509847025244444</v>
       </c>
       <c r="R18">
-        <v>0.1413623590576349</v>
+        <v>1.35886232272</v>
       </c>
       <c r="S18">
-        <v>9.597166911125659E-05</v>
+        <v>4.79796343471173E-05</v>
       </c>
       <c r="T18">
-        <v>9.597166911125659E-05</v>
+        <v>4.79796343471173E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H19">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N19">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q19">
-        <v>2.068220275783352</v>
+        <v>2.524329138023111</v>
       </c>
       <c r="R19">
-        <v>2.068220275783352</v>
+        <v>22.718962242208</v>
       </c>
       <c r="S19">
-        <v>0.00140412591640286</v>
+        <v>0.0008021765582146568</v>
       </c>
       <c r="T19">
-        <v>0.00140412591640286</v>
+        <v>0.0008021765582146568</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H20">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N20">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q20">
-        <v>4.979179832632961</v>
+        <v>0.041473223272</v>
       </c>
       <c r="R20">
-        <v>4.979179832632961</v>
+        <v>0.3732590094479999</v>
       </c>
       <c r="S20">
-        <v>0.003380392082648139</v>
+        <v>1.317928276518448E-05</v>
       </c>
       <c r="T20">
-        <v>0.003380392082648139</v>
+        <v>1.317928276518448E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H21">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q21">
-        <v>143.4895270990984</v>
+        <v>0.8415088074639999</v>
       </c>
       <c r="R21">
-        <v>143.4895270990984</v>
+        <v>7.573579267176</v>
       </c>
       <c r="S21">
-        <v>0.09741581498417699</v>
+        <v>0.0002674130836232544</v>
       </c>
       <c r="T21">
-        <v>0.09741581498417699</v>
+        <v>0.0002674130836232544</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H22">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N22">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q22">
-        <v>18.82940501884149</v>
+        <v>0.1950531220213333</v>
       </c>
       <c r="R22">
-        <v>18.82940501884149</v>
+        <v>1.755478098192</v>
       </c>
       <c r="S22">
-        <v>0.01278338477142505</v>
+        <v>6.198361367988305E-05</v>
       </c>
       <c r="T22">
-        <v>0.01278338477142505</v>
+        <v>6.198361367988305E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H23">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N23">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q23">
-        <v>18.12560702186332</v>
+        <v>0.1137150825026666</v>
       </c>
       <c r="R23">
-        <v>18.12560702186332</v>
+        <v>1.023435742524</v>
       </c>
       <c r="S23">
-        <v>0.01230557250982</v>
+        <v>3.613616470414872E-05</v>
       </c>
       <c r="T23">
-        <v>0.01230557250982</v>
+        <v>3.613616470414872E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H24">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N24">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q24">
-        <v>52.76338257113423</v>
+        <v>0.3126596679266667</v>
       </c>
       <c r="R24">
-        <v>52.76338257113423</v>
+        <v>2.81393701134</v>
       </c>
       <c r="S24">
-        <v>0.03582134542083425</v>
+        <v>9.935640029349247E-05</v>
       </c>
       <c r="T24">
-        <v>0.03582134542083425</v>
+        <v>9.935640029349246E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.133172</v>
+      </c>
+      <c r="H25">
+        <v>0.399516</v>
+      </c>
+      <c r="I25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N25">
+        <v>117.758761</v>
+      </c>
+      <c r="O25">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P25">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q25">
+        <v>5.227389906630665</v>
+      </c>
+      <c r="R25">
+        <v>47.04650915967599</v>
+      </c>
+      <c r="S25">
+        <v>0.001661150117306388</v>
+      </c>
+      <c r="T25">
+        <v>0.001661150117306388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H26">
+        <v>77.213701</v>
+      </c>
+      <c r="I26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.311426</v>
+      </c>
+      <c r="N26">
+        <v>0.9342779999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.006160792721660773</v>
+      </c>
+      <c r="P26">
+        <v>0.006160792721660772</v>
+      </c>
+      <c r="Q26">
+        <v>8.015451349208666</v>
+      </c>
+      <c r="R26">
+        <v>72.13906214287799</v>
+      </c>
+      <c r="S26">
+        <v>0.002547135030450363</v>
+      </c>
+      <c r="T26">
+        <v>0.002547135030450363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H27">
+        <v>77.213701</v>
+      </c>
+      <c r="I27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.318962</v>
+      </c>
+      <c r="N27">
+        <v>18.956886</v>
+      </c>
+      <c r="O27">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="P27">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="Q27">
+        <v>162.6368141661207</v>
+      </c>
+      <c r="R27">
+        <v>1463.731327495086</v>
+      </c>
+      <c r="S27">
+        <v>0.05168242043466085</v>
+      </c>
+      <c r="T27">
+        <v>0.05168242043466085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H28">
+        <v>77.213701</v>
+      </c>
+      <c r="I28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.464670666666667</v>
+      </c>
+      <c r="N28">
+        <v>4.394012</v>
+      </c>
+      <c r="O28">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="P28">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="Q28">
+        <v>37.69754763982355</v>
+      </c>
+      <c r="R28">
+        <v>339.277928758412</v>
+      </c>
+      <c r="S28">
+        <v>0.01197945567531213</v>
+      </c>
+      <c r="T28">
+        <v>0.01197945567531213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H29">
+        <v>77.213701</v>
+      </c>
+      <c r="I29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8538963333333333</v>
+      </c>
+      <c r="N29">
+        <v>2.561689</v>
+      </c>
+      <c r="O29">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="P29">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="Q29">
+        <v>21.97749872233211</v>
+      </c>
+      <c r="R29">
+        <v>197.797488500989</v>
+      </c>
+      <c r="S29">
+        <v>0.006983968143335668</v>
+      </c>
+      <c r="T29">
+        <v>0.006983968143335668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="H25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="I25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="J25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>33.4571969799076</v>
-      </c>
-      <c r="N25">
-        <v>33.4571969799076</v>
-      </c>
-      <c r="O25">
-        <v>0.7642058772379641</v>
-      </c>
-      <c r="P25">
-        <v>0.7642058772379641</v>
-      </c>
-      <c r="Q25">
-        <v>771.9614922954265</v>
-      </c>
-      <c r="R25">
-        <v>771.9614922954265</v>
-      </c>
-      <c r="S25">
-        <v>0.5240888267505688</v>
-      </c>
-      <c r="T25">
-        <v>0.5240888267505688</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H30">
+        <v>77.213701</v>
+      </c>
+      <c r="I30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.347788333333333</v>
+      </c>
+      <c r="N30">
+        <v>7.043365</v>
+      </c>
+      <c r="O30">
+        <v>0.04644518208498994</v>
+      </c>
+      <c r="P30">
+        <v>0.04644518208498993</v>
+      </c>
+      <c r="Q30">
+        <v>60.42714212709611</v>
+      </c>
+      <c r="R30">
+        <v>543.8442791438649</v>
+      </c>
+      <c r="S30">
+        <v>0.01920242339405191</v>
+      </c>
+      <c r="T30">
+        <v>0.0192024233940519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H31">
+        <v>77.213701</v>
+      </c>
+      <c r="I31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N31">
+        <v>117.758761</v>
+      </c>
+      <c r="O31">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P31">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q31">
+        <v>1010.287751331607</v>
+      </c>
+      <c r="R31">
+        <v>9092.58976198446</v>
+      </c>
+      <c r="S31">
+        <v>0.3210473384640675</v>
+      </c>
+      <c r="T31">
+        <v>0.3210473384640675</v>
       </c>
     </row>
   </sheetData>
